--- a/data/transformed_data_2003.xlsx
+++ b/data/transformed_data_2003.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>196055.7519908961</v>
+        <v>197760.3247908961</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>19453.98</v>
+        <v>16730.4228</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7278.46</v>
+        <v>6259.4756</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5115,7 +5115,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13465.58363584637</v>
+        <v>13308.76403584637</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5451,7 +5451,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>38.22</v>
+        <v>32.8692</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5619,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1158.36</v>
+        <v>996.1895999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7830,7 +7830,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>23704.70000056899</v>
+        <v>24261.45760056899</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8166,7 +8166,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>10981.88</v>
+        <v>9444.416799999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8334,7 +8334,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7005.04</v>
+        <v>6024.3344</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13433.029485633</v>
+        <v>13512.468285633</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1381.8</v>
+        <v>1188.348</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11077,7 +11077,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>814.38</v>
+        <v>700.3668</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13302,7 +13302,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12857.67761934566</v>
+        <v>12881.00161934566</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13638,7 +13638,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6973.68</v>
+        <v>5997.3648</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13806,7 +13806,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6807.08</v>
+        <v>5854.0888</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16045,7 +16045,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4488.8802</v>
+        <v>4432.9026</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16381,7 +16381,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>78.40000000000001</v>
+        <v>67.42399999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16549,7 +16549,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>478.24</v>
+        <v>411.2864</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18774,7 +18774,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13359.74873798009</v>
+        <v>13384.30753798009</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19110,7 +19110,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9599.1</v>
+        <v>8255.226000000001</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19278,7 +19278,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9423.68</v>
+        <v>8104.3648</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21517,7 +21517,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19299.20892062589</v>
+        <v>19101.22932062588</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21853,7 +21853,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6631.66</v>
+        <v>5703.2276</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22021,7 +22021,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8045.8</v>
+        <v>6919.387999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24260,7 +24260,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14710.72995448079</v>
+        <v>14488.87755448079</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24596,7 +24596,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6905.08</v>
+        <v>5938.368799999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24764,7 +24764,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8489.74</v>
+        <v>7301.1764</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27003,7 +27003,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4596.443480512091</v>
+        <v>4506.98908051209</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27339,7 +27339,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>698.74</v>
+        <v>600.9164</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27507,7 +27507,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1337.7</v>
+        <v>1150.422</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29732,7 +29732,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5628.65626344239</v>
+        <v>5711.387863442389</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30068,7 +30068,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5287.099999999999</v>
+        <v>4546.906</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30236,7 +30236,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4696.16</v>
+        <v>4038.6976</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32475,7 +32475,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>26545.05050583215</v>
+        <v>26652.06650583215</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32811,7 +32811,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1595.44</v>
+        <v>1372.0784</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -32979,7 +32979,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>831.04</v>
+        <v>714.6944</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35204,7 +35204,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4833.740508500267</v>
+        <v>4800.400908500268</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35540,7 +35540,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>60.76</v>
+        <v>52.2536</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35708,7 +35708,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>298.9</v>
+        <v>257.054</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37933,7 +37933,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5796.204678744808</v>
+        <v>5646.793878744807</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38269,7 +38269,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>41.16</v>
+        <v>35.3976</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38437,7 +38437,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1108.38</v>
+        <v>953.2067999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40676,7 +40676,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3281.166298719772</v>
+        <v>3256.333098719772</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -41012,7 +41012,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2668.54</v>
+        <v>2294.9444</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41180,7 +41180,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2845.92</v>
+        <v>2447.4912</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43419,7 +43419,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3606.31545539589</v>
+        <v>3618.389055395891</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43755,7 +43755,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5894.7</v>
+        <v>5069.441999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43923,7 +43923,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5808.46</v>
+        <v>4995.2756</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46162,7 +46162,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13929.14033627311</v>
+        <v>13408.05473627311</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46498,7 +46498,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5972.12</v>
+        <v>5136.0232</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46666,7 +46666,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9694.16</v>
+        <v>8336.977599999998</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48905,7 +48905,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3177.154451778094</v>
+        <v>3157.123251778094</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49241,7 +49241,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3853.36</v>
+        <v>3313.8896</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49409,7 +49409,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3996.44</v>
+        <v>3436.9384</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51634,7 +51634,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6615.232969559032</v>
+        <v>6357.982969559032</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51970,7 +51970,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>588</v>
+        <v>505.68</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52138,7 +52138,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2425.5</v>
+        <v>2085.93</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54363,7 +54363,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2970.846608250356</v>
+        <v>2932.567808250355</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54699,7 +54699,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>677.1799999999999</v>
+        <v>582.3747999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54867,7 +54867,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>950.6</v>
+        <v>817.516</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57092,7 +57092,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5914.133190896158</v>
+        <v>5840.868390896158</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57428,7 +57428,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>807.52</v>
+        <v>694.4671999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57596,7 +57596,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1330.84</v>
+        <v>1144.5224</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59807,7 +59807,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9204.68454395448</v>
+        <v>9241.865743954479</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60143,7 +60143,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1494.5</v>
+        <v>1285.27</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60311,7 +60311,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1228.92</v>
+        <v>1056.8712</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62536,7 +62536,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>46208.74582190612</v>
+        <v>48788.65462190612</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62872,7 +62872,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>22381.24</v>
+        <v>19247.8664</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63040,7 +63040,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3953.32</v>
+        <v>3399.8552</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65265,7 +65265,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3020.36894964438</v>
+        <v>3007.883749644381</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65601,7 +65601,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2372.58</v>
+        <v>2040.4188</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65769,7 +65769,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2461.76</v>
+        <v>2117.1136</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -67994,7 +67994,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>100891.5900631579</v>
+        <v>98601.99646315788</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68330,7 +68330,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>14113.96</v>
+        <v>12138.0056</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68498,7 +68498,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>30468.2</v>
+        <v>26202.652</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70737,7 +70737,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>35869.32577411095</v>
+        <v>35687.67297411095</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71073,7 +71073,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1951.18</v>
+        <v>1678.0148</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71241,7 +71241,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3248.7</v>
+        <v>2793.882</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73466,7 +73466,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>29869.52968193456</v>
+        <v>31291.33328193456</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73802,7 +73802,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>12417.58</v>
+        <v>10679.1188</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -73970,7 +73970,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2261.84</v>
+        <v>1945.1824</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76209,7 +76209,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22957.90551237553</v>
+        <v>23807.58511237553</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76545,7 +76545,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>20217.4</v>
+        <v>17386.964</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76713,7 +76713,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>14148.26</v>
+        <v>12167.5036</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -78952,7 +78952,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11913.16279707571</v>
+        <v>12030.88039707571</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79288,7 +79288,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2259.88</v>
+        <v>1943.4968</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79456,7 +79456,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1419.04</v>
+        <v>1220.3744</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81681,7 +81681,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>12269.17261963016</v>
+        <v>12451.09981963016</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82017,7 +82017,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2242.24</v>
+        <v>1928.3264</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82185,7 +82185,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>942.76</v>
+        <v>810.7735999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
